--- a/HereApps工作量评估.xlsx
+++ b/HereApps工作量评估.xlsx
@@ -1265,13 +1265,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国内项目：一般是开发时间的2/3。
-诺基亚项目：因为质量要求较高是开发时间的4/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国内项目一般是开发时间的2/3.
-诺基亚项目测试要求高，是开发时间的4/3</t>
+    <t>国内项目：一般是开发时间的2/3，Bug是1/3。
+诺基亚项目：因为质量要求较高是开发时间的4/3，Bug是2/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内项目一般是开发时间的2/3,Bug是1/3.
+诺基亚项目测试要求高，是开发时间的4/3，Bug是2/3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1510,12 +1510,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1530,6 +1524,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1847,7 +1847,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1875,7 +1875,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="18"/>
-      <c r="C1" s="16"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="2" t="s">
         <v>40</v>
       </c>
@@ -1915,11 +1915,11 @@
       <c r="P1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="13"/>
-      <c r="S1" s="14"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:19" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19"/>
@@ -1964,9 +1964,9 @@
       <c r="P2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="14"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -1994,7 +1994,7 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2122,22 +2122,22 @@
       </c>
       <c r="E6" s="8">
         <f>0.25*R6</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="F6" s="8">
         <f>0.5*R6</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="G6" s="8">
         <f>1*R6</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="5">
-        <f>SUM(D6:H6)*4/3</f>
-        <v>23.333333333333332</v>
+        <f>SUM(D6:H6)*2/3</f>
+        <v>17.5</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>20</v>
@@ -2146,31 +2146,31 @@
         <v>20</v>
       </c>
       <c r="L6" s="5">
-        <f>SUM(D6:H6)*4/3</f>
-        <v>23.333333333333332</v>
+        <f>SUM(D6:H6)*2/3</f>
+        <v>17.5</v>
       </c>
       <c r="M6" s="8">
         <f t="shared" si="2"/>
-        <v>12.833333333333332</v>
+        <v>12.25</v>
       </c>
       <c r="N6" s="8">
         <f>SUM(D6:L6)/10</f>
-        <v>6.4166666666666661</v>
+        <v>6.125</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" si="3"/>
-        <v>12.833333333333332</v>
+        <v>12.25</v>
       </c>
       <c r="P6" s="8">
         <f t="shared" si="4"/>
-        <v>12.833333333333332</v>
+        <v>12.25</v>
       </c>
       <c r="Q6" s="1">
         <f>SUM(D6:P6)</f>
-        <v>109.08333333333331</v>
+        <v>104.125</v>
       </c>
       <c r="R6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S6" t="s">
         <v>25</v>
@@ -2197,7 +2197,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1">
         <f>SUM(Q4:Q6)</f>
-        <v>229.5</v>
+        <v>224.54166666666669</v>
       </c>
     </row>
   </sheetData>

--- a/HereApps工作量评估.xlsx
+++ b/HereApps工作量评估.xlsx
@@ -792,7 +792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -863,71 +863,6 @@
             <family val="2"/>
           </rPr>
           <t>1/5</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>李享</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>国内项目人员管理成本是开发测试的</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1/10
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>诺基亚项目无差异</t>
         </r>
       </text>
     </comment>
@@ -972,40 +907,105 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>国内项目客户沟通成本是开发测试的</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1/10
-Nokia</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>项目客户沟通成本是开发测试的</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1/5</t>
+          <t>国内项目人员管理成本是开发测试的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1/10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>诺基亚项目无差异</t>
         </r>
       </text>
     </comment>
     <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>李享</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>国内项目客户沟通成本是开发测试的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1/10
+Nokia</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>项目客户沟通成本是开发测试的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1/5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1084,7 +1084,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>优先级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1209,11 +1209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国内项目，一个页面的理解需要0.5天。一个框架的理解需要2天。
-诺基亚项目，一个页面的理解需要0.5天。一个框架的理解需要4天。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国内项目验收管理成本是开发测试的1/10
 诺基亚验收管理成本是开发测试的1/5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1231,11 +1226,6 @@
   <si>
     <t>国内项目流程文档管理时间是开发测试的1/10
 诺基亚项目流程文档管理时间是开发测试的1/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国内项目，1个模块的需求的理解需要0.5天时间
-Nokia项目，文档详细帮助理解，同时英文需要更长时间，一个模块需求理解需要0.5天时间,一个Bug的业务理解时间是0.25天。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1272,6 +1262,25 @@
   <si>
     <t>国内项目一般是开发时间的2/3,Bug是1/3.
 诺基亚项目测试要求高，是开发时间的4/3，Bug是2/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目启动环境熟悉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内项目此项为0，
+国际项目为开发测试成本的1/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内项目，1个模块的需求的理解需要0.5天时间
+Nokia项目，文档详细帮助理解，同时英文需要更长时间，一个模块需求理解需要0.5天时间,一个Bug的业务理解时间是0.25天。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内项目，一个页面的理解需要0.5天。一个框架的理解需要2天。
+诺基亚项目，一个页面的理解需要1天。一个框架的理解需要4天。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1844,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1863,21 +1872,21 @@
     <col min="9" max="9" width="11.375" customWidth="1"/>
     <col min="10" max="10" width="11.25" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="11.125" customWidth="1"/>
-    <col min="13" max="13" width="10.875" customWidth="1"/>
-    <col min="14" max="14" width="11.625" customWidth="1"/>
-    <col min="15" max="15" width="12.25" customWidth="1"/>
-    <col min="16" max="16" width="12.875" customWidth="1"/>
+    <col min="12" max="13" width="11.125" customWidth="1"/>
+    <col min="14" max="14" width="10.875" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="12.25" customWidth="1"/>
+    <col min="17" max="17" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="54" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" ht="54" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="14"/>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>23</v>
@@ -1904,24 +1913,27 @@
         <v>18</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="12"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="12"/>
     </row>
-    <row r="2" spans="1:19" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="9"/>
@@ -1929,46 +1941,49 @@
         <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="12"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="12"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1992,8 +2007,9 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -2008,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="8">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2">
         <v>3</v>
@@ -2018,7 +2034,7 @@
       </c>
       <c r="I4" s="5">
         <f>SUM(D4:H4)*4/3</f>
-        <v>14.666666666666666</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="J4" s="8">
         <v>1.5</v>
@@ -2028,30 +2044,34 @@
       </c>
       <c r="L4" s="5">
         <f>SUM(D4:H4)*4/3</f>
-        <v>14.666666666666666</v>
-      </c>
-      <c r="M4" s="8">
+        <v>15.333333333333334</v>
+      </c>
+      <c r="M4" s="5">
+        <f>SUM(D4:L4)/20</f>
+        <v>2.2583333333333337</v>
+      </c>
+      <c r="N4" s="8">
         <f>SUM(D4:L4)/5</f>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="N4" s="8">
+        <v>9.033333333333335</v>
+      </c>
+      <c r="O4" s="8">
         <f>SUM(D4:L4)/10</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="O4" s="8">
-        <f>SUM(D4:L4)/5</f>
-        <v>8.6666666666666661</v>
+        <v>4.5166666666666675</v>
       </c>
       <c r="P4" s="8">
         <f>SUM(D4:L4)/5</f>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="Q4" s="1">
-        <f>SUM(D4:P4)</f>
-        <v>73.666666666666671</v>
+        <v>9.033333333333335</v>
+      </c>
+      <c r="Q4" s="8">
+        <f>SUM(D4:L4)/5</f>
+        <v>9.033333333333335</v>
+      </c>
+      <c r="R4" s="1">
+        <f>SUM(D4:Q4)</f>
+        <v>79.041666666666671</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -2066,7 +2086,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5" s="8">
         <v>3</v>
@@ -2076,7 +2096,7 @@
       </c>
       <c r="I5" s="5">
         <f t="shared" ref="I5" si="0">SUM(D5:H5)*4/3</f>
-        <v>10</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>4</v>
@@ -2086,30 +2106,34 @@
       </c>
       <c r="L5" s="5">
         <f t="shared" ref="L5" si="1">SUM(D5:H5)*4/3</f>
-        <v>10</v>
-      </c>
-      <c r="M5" s="8">
-        <f t="shared" ref="M5:M6" si="2">SUM(D5:L5)/5</f>
-        <v>5.5</v>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" ref="M5:M6" si="2">SUM(D5:L5)/20</f>
+        <v>1.4666666666666663</v>
       </c>
       <c r="N5" s="8">
+        <f t="shared" ref="N5:N6" si="3">SUM(D5:L5)/5</f>
+        <v>5.8666666666666654</v>
+      </c>
+      <c r="O5" s="8">
         <f>SUM(D5:L5)/10</f>
-        <v>2.75</v>
-      </c>
-      <c r="O5" s="8">
-        <f t="shared" ref="O5:O6" si="3">SUM(D5:L5)/5</f>
-        <v>5.5</v>
+        <v>2.9333333333333327</v>
       </c>
       <c r="P5" s="8">
         <f t="shared" ref="P5:P6" si="4">SUM(D5:L5)/5</f>
-        <v>5.5</v>
-      </c>
-      <c r="Q5" s="1">
-        <f>SUM(D5:P5)</f>
-        <v>46.75</v>
+        <v>5.8666666666666654</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" ref="Q5:Q6" si="5">SUM(D5:L5)/5</f>
+        <v>5.8666666666666654</v>
+      </c>
+      <c r="R5" s="1">
+        <f>SUM(D5:Q5)</f>
+        <v>51.333333333333321</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -2121,15 +2145,15 @@
         <v>21</v>
       </c>
       <c r="E6" s="8">
-        <f>0.25*R6</f>
+        <f>0.25*S6</f>
         <v>3.75</v>
       </c>
       <c r="F6" s="8">
-        <f>0.5*R6</f>
+        <f>0.5*S6</f>
         <v>7.5</v>
       </c>
       <c r="G6" s="8">
-        <f>1*R6</f>
+        <f>1*S6</f>
         <v>15</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -2149,34 +2173,38 @@
         <f>SUM(D6:H6)*2/3</f>
         <v>17.5</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="5">
         <f t="shared" si="2"/>
+        <v>3.0625</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="3"/>
         <v>12.25</v>
       </c>
-      <c r="N6" s="8">
+      <c r="O6" s="8">
         <f>SUM(D6:L6)/10</f>
         <v>6.125</v>
-      </c>
-      <c r="O6" s="8">
-        <f t="shared" si="3"/>
-        <v>12.25</v>
       </c>
       <c r="P6" s="8">
         <f t="shared" si="4"/>
         <v>12.25</v>
       </c>
-      <c r="Q6" s="1">
-        <f>SUM(D6:P6)</f>
-        <v>104.125</v>
-      </c>
-      <c r="R6">
+      <c r="Q6" s="8">
+        <f t="shared" si="5"/>
+        <v>12.25</v>
+      </c>
+      <c r="R6" s="1">
+        <f>SUM(D6:Q6)</f>
+        <v>107.1875</v>
+      </c>
+      <c r="S6">
         <v>15</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
@@ -2191,18 +2219,19 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="4"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1">
-        <f>SUM(Q4:Q6)</f>
-        <v>224.54166666666669</v>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1">
+        <f>SUM(R4:R6)</f>
+        <v>237.5625</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="A1:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/HereApps工作量评估.xlsx
+++ b/HereApps工作量评估.xlsx
@@ -1288,9 +1288,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1501,9 +1498,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1551,6 +1545,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1855,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1880,39 +1877,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="54" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="7" t="s">
         <v>41</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -1927,44 +1924,44 @@
       <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="12"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="11"/>
     </row>
     <row r="2" spans="1:20" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -1979,9 +1976,9 @@
       <c r="Q2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="12"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -2010,192 +2007,192 @@
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:20" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>5</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="7">
         <v>3</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>1.5</v>
       </c>
-      <c r="I4" s="5">
-        <f>SUM(D4:H4)*4/3</f>
-        <v>15.333333333333334</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="I4" s="4">
+        <f>SUM(D4,F4:H4)*4/3</f>
+        <v>14</v>
+      </c>
+      <c r="J4" s="7">
         <v>1.5</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>1.5</v>
       </c>
-      <c r="L4" s="5">
-        <f>SUM(D4:H4)*4/3</f>
-        <v>15.333333333333334</v>
-      </c>
-      <c r="M4" s="5">
+      <c r="L4" s="4">
+        <f>I4</f>
+        <v>14</v>
+      </c>
+      <c r="M4" s="4">
         <f>SUM(D4:L4)/20</f>
-        <v>2.2583333333333337</v>
-      </c>
-      <c r="N4" s="8">
+        <v>2.125</v>
+      </c>
+      <c r="N4" s="7">
         <f>SUM(D4:L4)/5</f>
-        <v>9.033333333333335</v>
-      </c>
-      <c r="O4" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="O4" s="7">
         <f>SUM(D4:L4)/10</f>
-        <v>4.5166666666666675</v>
-      </c>
-      <c r="P4" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="P4" s="7">
         <f>SUM(D4:L4)/5</f>
-        <v>9.033333333333335</v>
-      </c>
-      <c r="Q4" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="Q4" s="7">
         <f>SUM(D4:L4)/5</f>
-        <v>9.033333333333335</v>
+        <v>8.5</v>
       </c>
       <c r="R4" s="1">
         <f>SUM(D4:Q4)</f>
-        <v>79.041666666666671</v>
+        <v>74.375</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="2">
+      <c r="C5" s="6"/>
+      <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="7">
         <v>3</v>
       </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="F5" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="G5" s="7">
         <v>3</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="5">
-        <f t="shared" ref="I5" si="0">SUM(D5:H5)*4/3</f>
-        <v>10.666666666666666</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="I5" s="4">
+        <f>SUM(D5,F5:H5)*4/3</f>
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="5">
-        <f t="shared" ref="L5" si="1">SUM(D5:H5)*4/3</f>
-        <v>10.666666666666666</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" ref="M5:M6" si="2">SUM(D5:L5)/20</f>
-        <v>1.4666666666666663</v>
-      </c>
-      <c r="N5" s="8">
-        <f t="shared" ref="N5:N6" si="3">SUM(D5:L5)/5</f>
-        <v>5.8666666666666654</v>
-      </c>
-      <c r="O5" s="8">
+      <c r="L5" s="4">
+        <f>I5</f>
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="M5" s="4">
+        <f>SUM(D5:L5)/20</f>
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="N5" s="7">
+        <f>SUM(D5:L5)/5</f>
+        <v>4.78</v>
+      </c>
+      <c r="O5" s="7">
         <f>SUM(D5:L5)/10</f>
-        <v>2.9333333333333327</v>
-      </c>
-      <c r="P5" s="8">
-        <f t="shared" ref="P5:P6" si="4">SUM(D5:L5)/5</f>
-        <v>5.8666666666666654</v>
-      </c>
-      <c r="Q5" s="8">
-        <f t="shared" ref="Q5:Q6" si="5">SUM(D5:L5)/5</f>
-        <v>5.8666666666666654</v>
+        <v>2.39</v>
+      </c>
+      <c r="P5" s="7">
+        <f>SUM(D5:L5)/5</f>
+        <v>4.78</v>
+      </c>
+      <c r="Q5" s="7">
+        <f>SUM(D5:L5)/5</f>
+        <v>4.78</v>
       </c>
       <c r="R5" s="1">
         <f>SUM(D5:Q5)</f>
-        <v>51.333333333333321</v>
+        <v>41.825000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f>0.25*S6</f>
         <v>3.75</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f>0.5*S6</f>
         <v>7.5</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <f>1*S6</f>
         <v>15</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="5">
-        <f>SUM(D6:H6)*2/3</f>
-        <v>17.5</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="I6" s="4">
+        <f>SUM(D6,F6:H6)*2/3</f>
+        <v>15</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="5">
-        <f>SUM(D6:H6)*2/3</f>
-        <v>17.5</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" si="2"/>
-        <v>3.0625</v>
-      </c>
-      <c r="N6" s="8">
-        <f t="shared" si="3"/>
-        <v>12.25</v>
-      </c>
-      <c r="O6" s="8">
+      <c r="L6" s="4">
+        <f>I6</f>
+        <v>15</v>
+      </c>
+      <c r="M6" s="4">
+        <f>SUM(D6:L6)/20</f>
+        <v>2.8125</v>
+      </c>
+      <c r="N6" s="7">
+        <f>SUM(D6:L6)/5</f>
+        <v>11.25</v>
+      </c>
+      <c r="O6" s="7">
         <f>SUM(D6:L6)/10</f>
-        <v>6.125</v>
-      </c>
-      <c r="P6" s="8">
-        <f t="shared" si="4"/>
-        <v>12.25</v>
-      </c>
-      <c r="Q6" s="8">
-        <f t="shared" si="5"/>
-        <v>12.25</v>
+        <v>5.625</v>
+      </c>
+      <c r="P6" s="7">
+        <f>SUM(D6:L6)/5</f>
+        <v>11.25</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>SUM(D6:L6)/5</f>
+        <v>11.25</v>
       </c>
       <c r="R6" s="1">
         <f>SUM(D6:Q6)</f>
-        <v>107.1875</v>
+        <v>98.4375</v>
       </c>
       <c r="S6">
         <v>15</v>
@@ -2205,28 +2202,70 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="20">
+        <f>SUM(D4:D6)</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="20">
+        <f>SUM(E4:E6)</f>
+        <v>7.75</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" ref="F7:Q7" si="0">SUM(F4:F6)</f>
+        <v>14.2</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H7" s="20">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="0"/>
+        <v>36.6</v>
+      </c>
+      <c r="J7" s="20">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="L7" s="20">
+        <f t="shared" si="0"/>
+        <v>36.6</v>
+      </c>
+      <c r="M7" s="20">
+        <f t="shared" si="0"/>
+        <v>6.1325000000000003</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>24.53</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="0"/>
+        <v>12.265000000000001</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="0"/>
+        <v>24.53</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="0"/>
+        <v>24.53</v>
+      </c>
       <c r="R7" s="1">
         <f>SUM(R4:R6)</f>
-        <v>237.5625</v>
+        <v>214.63749999999999</v>
       </c>
     </row>
   </sheetData>
